--- a/マンダラート.xlsx
+++ b/マンダラート.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\2年\3DCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95B4A27-54EA-4645-B84C-C7E7D921009C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF66E4-5199-40C0-8012-11A9F77D96CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1764" windowWidth="17292" windowHeight="8880" activeTab="1" xr2:uid="{F58BB491-C7C8-497C-8B68-0A40878B3EF5}"/>
+    <workbookView xWindow="4692" yWindow="2016" windowWidth="17292" windowHeight="8880" firstSheet="1" activeTab="5" xr2:uid="{F58BB491-C7C8-497C-8B68-0A40878B3EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="手順・注意点" sheetId="1" r:id="rId1"/>
-    <sheet name="マンダラート" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="クトゥルフ" sheetId="2" r:id="rId2"/>
+    <sheet name="リトルナイトメア" sheetId="3" r:id="rId3"/>
+    <sheet name="ロボット" sheetId="4" r:id="rId4"/>
+    <sheet name="ウェザエモン戦" sheetId="5" r:id="rId5"/>
+    <sheet name="怪物たちの箱庭" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
   <si>
     <t>２、票の真ん中にコンセプト（目標を書く）</t>
     <rPh sb="2" eb="3">
@@ -159,408 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>柔らかい</t>
-    <rPh sb="0" eb="1">
-      <t>ヤワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>夏</t>
-    <rPh sb="0" eb="1">
-      <t>ナツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>みずみずしい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>色々な料理に使える</t>
-    <rPh sb="0" eb="2">
-      <t>イロイロ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>リョウリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>血</t>
-    <rPh sb="0" eb="1">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>太陽</t>
-    <rPh sb="0" eb="2">
-      <t>タイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パプリカ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>唐辛子</t>
-    <rPh sb="0" eb="3">
-      <t>トウガラシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>絵具</t>
-    <rPh sb="0" eb="2">
-      <t>エノグ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>薔薇</t>
-    <rPh sb="0" eb="2">
-      <t>バラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鶏冠</t>
-    <rPh sb="0" eb="2">
-      <t>トサカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>警報</t>
-    <rPh sb="0" eb="2">
-      <t>ケイホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ケーキ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クッキー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>考えが</t>
-    <rPh sb="0" eb="1">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詰めが</t>
-    <rPh sb="0" eb="1">
-      <t>ツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>羊羹</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>饅頭</t>
-    <rPh sb="0" eb="2">
-      <t>マンジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大福</t>
-    <rPh sb="0" eb="2">
-      <t>ダイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>海</t>
-    <rPh sb="0" eb="1">
-      <t>ウミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>川</t>
-    <rPh sb="0" eb="1">
-      <t>カワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山</t>
-    <rPh sb="0" eb="1">
-      <t>ヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>避暑地</t>
-    <rPh sb="0" eb="3">
-      <t>ヒショチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花火</t>
-    <rPh sb="0" eb="2">
-      <t>ハナビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>祭り</t>
-    <rPh sb="0" eb="1">
-      <t>マツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>盆</t>
-    <rPh sb="0" eb="1">
-      <t>ボン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>帰省</t>
-    <rPh sb="0" eb="2">
-      <t>キセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>きゅうり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オクラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴーヤ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>しそ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>とうもろこし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ナス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>うり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>らっきょう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>植物</t>
-    <rPh sb="0" eb="2">
-      <t>ショクブツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スライム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>果汁</t>
-    <rPh sb="0" eb="2">
-      <t>カジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いい色</t>
-    <rPh sb="2" eb="3">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水まんじゅう</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>肌</t>
-    <rPh sb="0" eb="1">
-      <t>ハダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>朝露</t>
-    <rPh sb="0" eb="2">
-      <t>アサツユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>煮込み</t>
-    <rPh sb="0" eb="2">
-      <t>ニコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>焼き</t>
-    <rPh sb="0" eb="1">
-      <t>ヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>生</t>
-    <rPh sb="0" eb="1">
-      <t>ナマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蒸し</t>
-    <rPh sb="0" eb="1">
-      <t>ム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>痛め</t>
-    <rPh sb="0" eb="1">
-      <t>イタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子供の肌</t>
-    <rPh sb="0" eb="2">
-      <t>コドモ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>耳たぶ</t>
-    <rPh sb="0" eb="1">
-      <t>ミミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>色</t>
-    <rPh sb="0" eb="1">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人間</t>
-    <rPh sb="0" eb="2">
-      <t>ニンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>乗り物</t>
-    <rPh sb="0" eb="1">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>モノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>職業</t>
-    <rPh sb="0" eb="2">
-      <t>ショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>衣服</t>
-    <rPh sb="0" eb="2">
-      <t>イフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>企業</t>
-    <rPh sb="0" eb="2">
-      <t>キギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>国</t>
-    <rPh sb="0" eb="1">
-      <t>クニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死に方</t>
-    <rPh sb="0" eb="1">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>茹でる</t>
-    <rPh sb="0" eb="1">
-      <t>ユ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シリコン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>クトゥルフ神話TRPG</t>
     <rPh sb="5" eb="7">
       <t>シンワ</t>
@@ -796,6 +397,519 @@
   </si>
   <si>
     <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎解き</t>
+    <rPh sb="0" eb="2">
+      <t>ナゾト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小人</t>
+    <rPh sb="0" eb="2">
+      <t>コビト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大な敵</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステルス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドベンチャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兵装切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイソウキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタマイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パイルバンカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高威力</t>
+    <rPh sb="0" eb="3">
+      <t>コウイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機構</t>
+    <rPh sb="0" eb="2">
+      <t>キコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>San</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち物</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>おふざけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意見交換</t>
+    <rPh sb="0" eb="4">
+      <t>イケンコウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>否定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肯定</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きな敵</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雰囲気</t>
+    <rPh sb="0" eb="3">
+      <t>フンイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物を動かす</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠れる</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引っ張る</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壊す</t>
+    <rPh sb="0" eb="1">
+      <t>コワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>乗る</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦闘機</t>
+    <rPh sb="0" eb="3">
+      <t>セントウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戦車</t>
+    <rPh sb="0" eb="2">
+      <t>センシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近接攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>キンセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実弾</t>
+    <rPh sb="0" eb="2">
+      <t>ジツダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛行</t>
+    <rPh sb="0" eb="2">
+      <t>ヒコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩行</t>
+    <rPh sb="0" eb="2">
+      <t>ホコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射撃</t>
+    <rPh sb="0" eb="2">
+      <t>シャゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブースター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発射音</t>
+    <rPh sb="0" eb="3">
+      <t>ハッシャオン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残弾数</t>
+    <rPh sb="0" eb="3">
+      <t>ザンダンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐久力</t>
+    <rPh sb="0" eb="3">
+      <t>タイキュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器数</t>
+    <rPh sb="0" eb="3">
+      <t>ブキスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>駆動</t>
+    <rPh sb="0" eb="2">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器変更</t>
+    <rPh sb="0" eb="4">
+      <t>ブキヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パーツ変更</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大生物</t>
+    <rPh sb="0" eb="4">
+      <t>キョダイセイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中要塞</t>
+    <rPh sb="0" eb="4">
+      <t>クウチュウヨウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>標的マーカ―</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隙間</t>
+    <rPh sb="0" eb="2">
+      <t>スキマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引きずる</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見つかりにくい</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大人</t>
+    <rPh sb="0" eb="2">
+      <t>オトナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子供</t>
+    <rPh sb="0" eb="2">
+      <t>コドモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足音</t>
+    <rPh sb="0" eb="2">
+      <t>アシオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気配</t>
+    <rPh sb="0" eb="2">
+      <t>ケハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物音</t>
+    <rPh sb="0" eb="2">
+      <t>モノオト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウェザエモン戦</t>
+    <rPh sb="6" eb="7">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵AI</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵技</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワザ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作性</t>
+    <rPh sb="0" eb="3">
+      <t>ソウサセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゃがみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パリィ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪物たちの箱庭</t>
+    <rPh sb="0" eb="2">
+      <t>カイブツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハコニワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クトゥルフ神話</t>
+    <rPh sb="5" eb="7">
+      <t>シンワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱出</t>
+    <rPh sb="0" eb="2">
+      <t>ダッシュツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -803,7 +917,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,6 +937,14 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -927,7 +1049,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,6 +1090,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1305,17 +1439,17 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
@@ -1450,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EEDE6E-82BB-4470-845E-A63E03DC3AFD}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1461,54 +1595,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54.9" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="54.9" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>D4</f>
         <v>神話生物</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="str">
         <f>E4</f>
         <v>ダイス</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="str">
         <f>F4</f>
@@ -1518,57 +1652,57 @@
     </row>
     <row r="3" spans="1:9" ht="54.9" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="54.9" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="54.9" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>D5</f>
@@ -1576,16 +1710,16 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="H5" s="3" t="str">
         <f>F5</f>
@@ -1595,62 +1729,68 @@
     </row>
     <row r="6" spans="1:9" ht="54.9" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="54.9" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="54.9" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="str">
         <f>D6</f>
         <v>探索者</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="D8" s="2" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="str">
         <f>E6</f>
         <v>シナリオ</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="H8" s="3" t="str">
         <f>F6</f>
         <v>プレイヤー同士の掛け合い</v>
@@ -1658,18 +1798,28 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="D9" s="2" t="s">
-        <v>112</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="I9" s="4"/>
     </row>
   </sheetData>
@@ -1683,267 +1833,725 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="16" t="str">
+        <f>D4</f>
+        <v>ホラー</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f>E4</f>
+        <v>ステルス</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="16" t="str">
+        <f>F4</f>
+        <v>アドベンチャー</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="16" t="str">
+        <f>D5</f>
+        <v>アクション</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16">
+        <f>F5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="14"/>
+      <c r="B8" s="16" t="str">
+        <f>D6</f>
+        <v>謎解き</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="16" t="str">
+        <f>E6</f>
+        <v>小人</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f>F6</f>
+        <v>巨大な敵</v>
+      </c>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B2DC28-6E5C-46A3-8665-E350AAD7F2BF}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="9" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="54.9" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
       <c r="G1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="54.9" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="str">
         <f>D4</f>
-        <v>神話生物</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>演出</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="3" t="str">
+        <f>F4</f>
+        <v>パイルバンカー</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f>D5</f>
+        <v>アクション</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="3" t="str">
+        <f>F5</f>
+        <v>UI</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>D6</f>
+        <v>兵装切り替え</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="3" t="str">
+        <f>E6</f>
+        <v>敵</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H8" s="3" t="str">
+        <f>F6</f>
+        <v>カスタマイズ</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F02C47C-344A-4683-AA30-FEEF44F99C33}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="9" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="str">
+        <f>D4</f>
+        <v>ステージ</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="3" t="str">
         <f>E4</f>
-        <v>ホラー</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>敵AI</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="3" t="str">
         <f>F4</f>
-        <v>夏</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>敵技</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="54.9" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="54.9" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="B5" s="3" t="str">
         <f>D5</f>
-        <v>技能</v>
+        <v>アクション</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>78</v>
+        <v>117</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
+        <f>F5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="str">
+        <f>D6</f>
+        <v>演出</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="str">
+        <f>E6</f>
+        <v>操作性</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="3">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47502EE-FFF2-4A25-B4E4-76C6B5A9AFB8}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="9" width="20.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="str">
+        <f>D4</f>
+        <v>設定</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="str">
+        <f>E4</f>
+        <v>クトゥルフ神話</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="3">
+        <f>F4</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="str">
+        <f>D5</f>
+        <v>脱出</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" s="3" t="str">
         <f>F5</f>
-        <v>みずみずしい</v>
+        <v>敵</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="3"/>
+    <row r="6" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>58</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="str">
         <f>D6</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>謎解き</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="3" t="str">
         <f>E6</f>
-        <v>柔らかい</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>69</v>
-      </c>
+        <v>アクション</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="3" t="str">
         <f>F6</f>
-        <v>色々な料理に使える</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
-      </c>
+        <v>ステージ</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="54.9" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/マンダラート.xlsx
+++ b/マンダラート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\school\2年\3DCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BF66E4-5199-40C0-8012-11A9F77D96CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A2EF85-0C11-4740-824D-C6E2135ED175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4692" yWindow="2016" windowWidth="17292" windowHeight="8880" firstSheet="1" activeTab="5" xr2:uid="{F58BB491-C7C8-497C-8B68-0A40878B3EF5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="176">
   <si>
     <t>２、票の真ん中にコンセプト（目標を書く）</t>
     <rPh sb="2" eb="3">
@@ -909,6 +909,403 @@
     <t>脱出</t>
     <rPh sb="0" eb="2">
       <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目的は脱出</t>
+    <rPh sb="0" eb="2">
+      <t>モクテキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは探索者</t>
+    <rPh sb="6" eb="9">
+      <t>タンサクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者は邪神</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジャ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵は神話生物</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>シンワセイブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲートから出る</t>
+    <rPh sb="5" eb="6">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミックを解いて出る</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地点に到達</t>
+    <rPh sb="0" eb="2">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒す</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パズル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物を引っ張る</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>パ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物を押す</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パンチ・キック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しゃがむ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>謎解きギミック</t>
+    <rPh sb="0" eb="2">
+      <t>ナゾト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>物を落として渡る</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>罠</t>
+    <rPh sb="0" eb="1">
+      <t>ワナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連鎖型</t>
+    <rPh sb="0" eb="3">
+      <t>レンサガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海底都市</t>
+    <rPh sb="0" eb="4">
+      <t>カイテイトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージは神格の場所</t>
+    <rPh sb="5" eb="7">
+      <t>シンカク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SAN値</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショゴス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>深きもの</t>
+    <rPh sb="0" eb="1">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インスマス面</t>
+    <rPh sb="5" eb="6">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巡回型</t>
+    <rPh sb="0" eb="3">
+      <t>ジュンカイガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追跡型</t>
+    <rPh sb="0" eb="2">
+      <t>ツイセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障害物貫通型</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カンツウガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開閉式ドアとレバー</t>
+    <rPh sb="0" eb="3">
+      <t>カイヘイシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上からの落下物</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ラッカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とし穴</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捕獲網</t>
+    <rPh sb="0" eb="3">
+      <t>ホカクアミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動床</t>
+    <rPh sb="0" eb="3">
+      <t>イドウユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横からの発射物</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ハッシャブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>串</t>
+    <rPh sb="0" eb="1">
+      <t>クシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せき止められた水を流す</t>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>固定型</t>
+    <rPh sb="0" eb="3">
+      <t>コテイガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>消失する足場</t>
+    <rPh sb="0" eb="2">
+      <t>ショウシツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アシバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度低下</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泥濘</t>
+    <rPh sb="0" eb="2">
+      <t>ヌカルミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火災現場</t>
+    <rPh sb="0" eb="2">
+      <t>カサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ゲンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風が吹き荒れる場所</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拘束</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>音を鳴らす</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>霧に包まれた場所</t>
+    <rPh sb="0" eb="1">
+      <t>キリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を動かす</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1584,7 +1981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EEDE6E-82BB-4470-845E-A63E03DC3AFD}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2405,8 +2802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C47502EE-FFF2-4A25-B4E4-76C6B5A9AFB8}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2415,49 +2812,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A1" s="4"/>
+      <c r="A1" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="G1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="B2" s="3" t="str">
         <f>D4</f>
         <v>設定</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E2" s="3" t="str">
         <f>E4</f>
         <v>クトゥルフ神話</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3">
+      <c r="G2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="3" t="str">
         <f>F4</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>罠</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
@@ -2466,13 +2901,23 @@
       <c r="E4" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="F4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="B5" s="3" t="str">
         <f>D5</f>
         <v>脱出</v>
@@ -2487,19 +2932,27 @@
       <c r="F5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="H5" s="3" t="str">
         <f>F5</f>
         <v>敵</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>52</v>
@@ -2507,51 +2960,101 @@
       <c r="F6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>138</v>
+      </c>
       <c r="B8" s="3" t="str">
         <f>D6</f>
-        <v>謎解き</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
+        <v>謎解きギミック</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="E8" s="3" t="str">
         <f>E6</f>
         <v>アクション</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
+      <c r="F8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="H8" s="3" t="str">
         <f>F6</f>
         <v>ステージ</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="54.9" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
